--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE61ABA1-C65B-4D0B-9723-8BE50E442E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0DCDCA0-4597-41BB-8133-255495021D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -615,10 +615,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH7,S1aH6,S5b1209h15,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S1aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH4,S2aH2,S4aH6,S5b1209h17,S4aH5,S5b1209h13,S5aH4,S5b1209h09,S5b1209h10,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH2,S4aH2,S5b1209h07,S3aH3,S5b1209h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
-  </si>
-  <si>
-    <t>S2aH8,S5b1209h20,S5b1209h01,S1aH8,S5aH1,S5b1209h02,S4aH1,S5b1209h05,S5b1209h24,S5b1209h19,S4aH8,S5b1209h03,S5b1209h04,S5b1209h06,S3aH8,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h21,S3aH1</t>
+    <t>S1aH3,S3aH2,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S3aH7,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S3aH3,S5b1209h16,S5b1209h13,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S4aH2,S5b1209h07,S1aH4,S2aH2,S4aH6,S5b1209h17,S1aH6,S5b1209h15,S5aH4,S5b1209h09,S5b1209h10</t>
+  </si>
+  <si>
+    <t>S3aH8,S5b1209h19,S1aH8,S5aH1,S5b1209h02,S2aH8,S5b1209h20,S5b1209h21,S4aH8,S5b1209h03,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S4aH1,S5b1209h05,S5b1209h24,S5b1209h01,S5b1209h04,S5b1209h06,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -935,7 +935,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBB0A6D-6BAF-D152-FC04-75E3B05761DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3C1C92-C8C8-ED77-DAFC-923BCFF31428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +990,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13A3823-292A-7F20-A3F5-8D9AE15529B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13177F90-99DB-76B5-2567-365634493194}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1045,7 +1045,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5499CD40-E573-A77A-DDBE-1AF4E06CF0C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91A997F-8213-2611-E3EA-2B0BBFA7AF5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S5b1209h20,S5b1209h01,S1aH8,S5aH1,S5b1209h02,S4aH1,S5b1209h05,S5b1209h24,S5b1209h19,S4aH8,S5b1209h03,S5b1209h04,S5b1209h06,S3aH8,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h21,S3aH1</v>
+        <v>S3aH8,S5b1209h19,S1aH8,S5aH1,S5b1209h02,S2aH8,S5b1209h20,S5b1209h21,S4aH8,S5b1209h03,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S4aH1,S5b1209h05,S5b1209h24,S5b1209h01,S5b1209h04,S5b1209h06,S3aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH7,S1aH6,S5b1209h15,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S1aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH4,S2aH2,S4aH6,S5b1209h17,S4aH5,S5b1209h13,S5aH4,S5b1209h09,S5b1209h10,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH2,S4aH2,S5b1209h07,S3aH3,S5b1209h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S1aH3,S3aH2,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S3aH7,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S3aH3,S5b1209h16,S5b1209h13,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S4aH2,S5b1209h07,S1aH4,S2aH2,S4aH6,S5b1209h17,S1aH6,S5b1209h15,S5aH4,S5b1209h09,S5b1209h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21D92C1-D0B2-4B68-9305-52A2673313AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0CA01D-20A6-477F-AD49-68DDD4D0E1AA}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2526,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66075D7-1C50-494D-BC09-5AC0644272B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F2E4C-4260-4283-80A3-C06B46188C43}">
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,10 +2655,10 @@
         <v>122</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R11" s="24">
-        <v>8.4821841739935219E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>199</v>
@@ -2702,10 +2702,10 @@
         <v>122</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R12" s="26">
-        <v>0.81410226746876446</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>199</v>
@@ -2749,10 +2749,10 @@
         <v>122</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R13" s="24">
-        <v>0.14770939379916706</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>199</v>
@@ -2796,10 +2796,10 @@
         <v>122</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R14" s="26">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>199</v>
@@ -2843,10 +2843,10 @@
         <v>122</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R15" s="24">
-        <v>7.7845904673762151E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>199</v>
@@ -5104,7 +5104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD91EB3-5C5A-4AB2-9405-E7F4DC6E29CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A804C9-ED7F-49F8-9677-A85E1310D1C7}">
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E30C83-9D38-4F80-9469-273643B1ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2939D9C4-E96F-4043-8690-F2E81EAAFD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -612,10 +612,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S1aH4,S2aH2,S4aH6,S5b1209h17,S4aH2,S5b1209h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH3,S3aH3,S5b1209h16,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S5b1209h13,S1aH6,S5b1209h15,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S5aH4,S5b1209h09,S5b1209h10</t>
-  </si>
-  <si>
-    <t>S3aH8,S4aH1,S5b1209h05,S5b1209h24,S3aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h19,S5b1209h21,S2aH8,S5b1209h20,S4aH8,S5b1209h03,S5b1209h01,S1aH8,S5aH1,S5b1209h02,S1aH1,S5b1209h04,S5b1209h06</t>
+    <t>S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH4,S2aH2,S4aH6,S5b1209h17,S5b1209h13,S4aH2,S5b1209h07,S1aH6,S5b1209h15,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S3aH2,S3aH3,S5b1209h16,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S5aH4,S5b1209h09,S5b1209h10,S4aH5</t>
+  </si>
+  <si>
+    <t>S3aH1,S4aH1,S5b1209h05,S5b1209h24,S4aH8,S5b1209h03,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h01,S2aH8,S5b1209h20,S1aH1,S3aH8,S5b1209h21,S1aH8,S5aH1,S5b1209h02,S5b1209h04,S5b1209h06,S5b1209h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S4aH1,S5b1209h05,S5b1209h24,S3aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h19,S5b1209h21,S2aH8,S5b1209h20,S4aH8,S5b1209h03,S5b1209h01,S1aH8,S5aH1,S5b1209h02,S1aH1,S5b1209h04,S5b1209h06</v>
+        <v>S3aH1,S4aH1,S5b1209h05,S5b1209h24,S4aH8,S5b1209h03,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h01,S2aH8,S5b1209h20,S1aH1,S3aH8,S5b1209h21,S1aH8,S5aH1,S5b1209h02,S5b1209h04,S5b1209h06,S5b1209h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S1aH4,S2aH2,S4aH6,S5b1209h17,S4aH2,S5b1209h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH3,S3aH3,S5b1209h16,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S5b1209h13,S1aH6,S5b1209h15,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S5aH4,S5b1209h09,S5b1209h10</v>
+        <v>S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH4,S2aH2,S4aH6,S5b1209h17,S5b1209h13,S4aH2,S5b1209h07,S1aH6,S5b1209h15,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S3aH2,S3aH3,S5b1209h16,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S5aH4,S5b1209h09,S5b1209h10,S4aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1832,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52DBBC-9CA1-48F0-BD62-730ED606F96C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3F9406-0BC5-4309-A076-3C87A08593ED}">
   <dimension ref="B9:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2150,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D80986-6F1D-430A-A6F4-6C299E4E187D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E40BD23-3B67-493D-B773-5EE76B2DFC1E}">
   <dimension ref="B9:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2256,10 +2256,10 @@
         <v>121</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R11">
-        <v>8.4821841739935219E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S11" t="s">
         <v>198</v>
@@ -2350,10 +2350,10 @@
         <v>121</v>
       </c>
       <c r="Q13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R13">
-        <v>0.81410226746876446</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S13" t="s">
         <v>198</v>
@@ -2444,10 +2444,10 @@
         <v>121</v>
       </c>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R15">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S15" t="s">
         <v>198</v>
@@ -4701,7 +4701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67567B1-28EC-45A8-ABF0-ADBE12D5A7C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39C465-6B08-4C2B-AABF-ABA9A6A62174}">
   <dimension ref="B9:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43B1022-B068-405D-8813-38CFA0793B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDBFD24-33C6-4524-A65D-4B28D9F34138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -459,13 +459,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S4aH6,S5b1209h17,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S4aH5,S3aH3,S5b1209h16,S3aH7,S5aH4,S5b1209h09,S5b1209h10,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S1aH3,S1aH6,S5b1209h15,S3aH2,S4aH2,S5b1209h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1209h13</t>
+    <t>S5b1209h13,S1aH3,S3aH2,S4aH5,S5aH4,S5b1209h09,S5b1209h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S3aH3,S5b1209h16,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH6,S5b1209h15,S4aH2,S5b1209h07,S1aH4,S2aH2,S4aH6,S5b1209h17</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S4aH1,S5b1209h05,S5b1209h24,S1aH8,S5aH1,S5b1209h02,S5b1209h19,S5b1209h21,S3aH1,S2aH8,S5b1209h20,S5b1209h04,S5b1209h06,S5b1209h01,S3aH8,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S4aH8,S5b1209h03</t>
+    <t>S4aH8,S5b1209h03,S3aH8,S5b1209h19,S5b1209h04,S5b1209h06,S1aH1,S2aH8,S5b1209h20,S5b1209h21,S1aH8,S5aH1,S5b1209h02,S5b1209h01,S3aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S4aH1,S5b1209h05,S5b1209h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S4aH1,S5b1209h05,S5b1209h24,S1aH8,S5aH1,S5b1209h02,S5b1209h19,S5b1209h21,S3aH1,S2aH8,S5b1209h20,S5b1209h04,S5b1209h06,S5b1209h01,S3aH8,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S4aH8,S5b1209h03</v>
+        <v>S4aH8,S5b1209h03,S3aH8,S5b1209h19,S5b1209h04,S5b1209h06,S1aH1,S2aH8,S5b1209h20,S5b1209h21,S1aH8,S5aH1,S5b1209h02,S5b1209h01,S3aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S4aH1,S5b1209h05,S5b1209h24</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH4,S2aH2,S4aH6,S5b1209h17,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S4aH5,S3aH3,S5b1209h16,S3aH7,S5aH4,S5b1209h09,S5b1209h10,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S1aH3,S1aH6,S5b1209h15,S3aH2,S4aH2,S5b1209h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1209h13</v>
+        <v>S5b1209h13,S1aH3,S3aH2,S4aH5,S5aH4,S5b1209h09,S5b1209h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S3aH3,S5b1209h16,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH6,S5b1209h15,S4aH2,S5b1209h07,S1aH4,S2aH2,S4aH6,S5b1209h17</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5D7EB0-34D3-4990-9CB3-FCABF8D66686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD13A89F-C808-4F65-B308-857448B886E5}">
   <dimension ref="A9:AM138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1339,10 +1339,10 @@
         <v>0.29524362667493453</v>
       </c>
       <c r="AK11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL11">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>147</v>
@@ -1431,10 +1431,10 @@
         <v>4.7126123672023956E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL12">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>147</v>
@@ -1517,10 +1517,10 @@
         <v>4.7484009459135335E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL13">
-        <v>0.14770939379916706</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>147</v>
@@ -1689,10 +1689,10 @@
         <v>6.4766514599613911E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>7.7845904673762151E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="AM15" t="s">
         <v>147</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4154F001-805E-440A-9747-5012460C78BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EAB3E2C-A8E7-43CD-AC46-34624170A333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -459,13 +459,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S5b1209h13,S1aH4,S2aH2,S4aH6,S5b1209h17,S3aH3,S5b1209h16,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH6,S5b1209h15,S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S4aH5,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S4aH2,S5b1209h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S5aH4,S5b1209h09,S5b1209h10</t>
+    <t>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S3aH7,S5aH4,S5b1209h09,S5b1209h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1209h13,S3aH2,S1aH4,S2aH2,S4aH6,S5b1209h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S4aH2,S5b1209h07,S4aH5,S1aH3,S3aH3,S5b1209h16,S1aH6,S5b1209h15</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S4aH8,S5b1209h03,S4aH1,S5b1209h05,S5b1209h24,S1aH1,S5b1209h21,S3aH1,S5b1209h01,S3aH8,S2aH8,S5b1209h20,S5b1209h19,S1aH8,S5aH1,S5b1209h02,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h04,S5b1209h06</t>
+    <t>S1aH8,S5aH1,S5b1209h02,S2aH8,S5b1209h20,S5b1209h04,S5b1209h06,S4aH8,S5b1209h03,S3aH8,S4aH1,S5b1209h05,S5b1209h24,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h19,S3aH1,S5b1209h21,S5b1209h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S4aH8,S5b1209h03,S4aH1,S5b1209h05,S5b1209h24,S1aH1,S5b1209h21,S3aH1,S5b1209h01,S3aH8,S2aH8,S5b1209h20,S5b1209h19,S1aH8,S5aH1,S5b1209h02,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h04,S5b1209h06</v>
+        <v>S1aH8,S5aH1,S5b1209h02,S2aH8,S5b1209h20,S5b1209h04,S5b1209h06,S4aH8,S5b1209h03,S3aH8,S4aH1,S5b1209h05,S5b1209h24,S1aH1,S2aH1,S5aH8,S5b1209h22,S5b1209h23,S5b1209h19,S3aH1,S5b1209h21,S5b1209h01</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S5b1209h13,S1aH4,S2aH2,S4aH6,S5b1209h17,S3aH3,S5b1209h16,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S1aH6,S5b1209h15,S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S3aH7,S4aH5,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S4aH2,S5b1209h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S5aH4,S5b1209h09,S5b1209h10</v>
+        <v>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1209h12,S2aH6,S3aH5,S5aH3,S5b1209h08,S5b1209h18,S3aH7,S5aH4,S5b1209h09,S5b1209h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1209h13,S3aH2,S1aH4,S2aH2,S4aH6,S5b1209h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b1209h11,S5b1209h14,S4aH2,S5b1209h07,S4aH5,S1aH3,S3aH3,S5b1209h16,S1aH6,S5b1209h15</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D592CB62-F36D-427C-AF9C-D069FEC525F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B0A3C3-F9CE-4212-B366-80D2F9ADBB73}">
   <dimension ref="A9:AM138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1339,10 +1339,10 @@
         <v>0.29524362667493453</v>
       </c>
       <c r="AK11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL11">
-        <v>7.7845904673762151E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>147</v>
@@ -1431,10 +1431,10 @@
         <v>4.7126123672023956E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL12">
-        <v>0.81410226746876446</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>147</v>
@@ -1517,10 +1517,10 @@
         <v>4.7484009459135335E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL13">
-        <v>7.5520592318371119E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM13" t="s">
         <v>147</v>
